--- a/doc/SD/FI-SD-用户注册登录详细设计.xlsx
+++ b/doc/SD/FI-SD-用户注册登录详细设计.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\金润\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\理财通\smp\doc\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="8325" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="2" r:id="rId1"/>
     <sheet name="注册" sheetId="1" r:id="rId2"/>
     <sheet name="登录" sheetId="3" r:id="rId3"/>
-    <sheet name="实施" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>https://www.vipzftaab.com/index/index/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,80 +52,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、根据注册链接地址，默认带入推荐人用户名；</t>
+  </si>
+  <si>
+    <t>2、用户名自动随机生成，不能修改，点击更换后重新生成；</t>
+  </si>
+  <si>
+    <t>3、密码不能小于六位；</t>
+  </si>
+  <si>
+    <t>4、页面增加确认登录密码、确认安全密码；</t>
+  </si>
+  <si>
+    <t>5、验证码点击后自动刷新；</t>
+  </si>
+  <si>
+    <t>6、身份证号校验、手机号校验、姓名校验；</t>
+  </si>
+  <si>
+    <t>登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户名、密码必须录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、验证码验证通过后，才能登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、登录时验证用户名、密码是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、注册成功后，跳转到登录页面；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、用户冻结后，所有功能不能操作，需要购买重新激活；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、录入验证码，校验通过后才能点击发送验证码；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>z05942939</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、根据注册链接地址，默认带入推荐人用户名；</t>
-  </si>
-  <si>
-    <t>2、用户名自动随机生成，不能修改，点击更换后重新生成；</t>
-  </si>
-  <si>
-    <t>3、密码不能小于六位；</t>
-  </si>
-  <si>
-    <t>4、页面增加确认登录密码、确认安全密码；</t>
-  </si>
-  <si>
-    <t>5、验证码点击后自动刷新；</t>
-  </si>
-  <si>
-    <t>6、身份证号校验、手机号校验、姓名校验；</t>
-  </si>
-  <si>
-    <t>7、录入验证码，校验通过后才能点击发送验证码；</t>
-  </si>
-  <si>
-    <t>8、注册成功后，跳转到登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、用户名、密码必须录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、验证码验证通过后，才能登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、登录时验证用户名、密码是否正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码重置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,6 +452,44 @@
         <a:xfrm>
           <a:off x="5486400" y="14992350"/>
           <a:ext cx="4267200" cy="2447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142515</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>152190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="17926050"/>
+          <a:ext cx="2876190" cy="1676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -877,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -907,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -929,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -943,15 +989,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -960,7 +1006,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -969,7 +1015,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -978,7 +1024,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -987,7 +1033,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -996,7 +1042,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1005,7 +1051,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I8" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1014,7 +1060,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I9" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1022,7 +1068,9 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1099,16 +1147,21 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B32" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -1136,38 +1189,38 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1175,19 +1228,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>